--- a/jobs2.xlsx
+++ b/jobs2.xlsx
@@ -14,6 +14,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Job Listings - 1745954710" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Job Listings - 1745954838" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Job Listings - 1746035268" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5027,4 +5029,3903 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="100" customWidth="1" min="10" max="10"/>
+    <col width="100" customWidth="1" min="11" max="11"/>
+    <col width="50" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Salary_Lower</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Salary_Upper</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Head of Technology</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Omnidya</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>$350,000 - $500,000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>350000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>A pivotal technology leadership role at Omnidya focused on innovation and strategic direction.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>As the Head of Technology, you will drive Omnidya's technological vision, lead teams, and oversee innovative projects in the insurance industry. Key skills include technology leadership, project management, expertise in computer vision and SLAM, AWS architecture, and proficiency in MongoDB.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-technology-at-omnidya-4213574402?position=26&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=67PMRNXFsSSe4wG61p75WA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <f>HYPERLINK(L2, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Head of Engineering, Product AI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Atlassian</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>$251,700 - $400,000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>251700</v>
+      </c>
+      <c r="I3" t="n">
+        <v>400000</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>A leadership role overseeing AI solutions to enhance Atlassian's product offerings.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Lead engineering efforts for AI feature development at Atlassian, focusing on personalization and quality. Requires 8+ years in AI/ML, strong team leadership, and expertise in AI quality assurance.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-engineering-product-ai-at-atlassian-4215921285?position=51&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=HWKcgJaBPjFjsPk2ced7Nw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <f>HYPERLINK(L3, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>384000</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Americas - Sub Capability Leader - AI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Slalom</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>$240,000 - $384,000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>240000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>384000</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>A strategic leadership role at Slalom focusing on AI development and delivery excellence.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Lead and develop a team of AI experts to execute transformative AI initiatives, ensuring high-quality delivery across all projects. Collaborate with leadership to drive AI strategy and foster demand through outreach and mentoring.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/americas-sub-capability-leader-ai-at-slalom-4219139460?position=17&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=FLg3Gxa3%2BBmPDF2Q0ozG2g%3D%3D</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <f>HYPERLINK(L4, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>789012</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Senior Director, Software Engineering Search and AI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Chewy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>$217,000 - $368,000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>217000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>368000</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>A high-impact role leading software engineering for Search and AI at Chewy.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Lead the Recommendation &amp; Personalization Engine team at Chewy, focusing on building user understanding models and systems. Requires strong expertise in search recommendation, machine learning, and software development management.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-director-software-engineering-search-and-ai-at-chewy-4179134153?position=27&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=sKJgTB7aKTqJL3Xo57qfVA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <f>HYPERLINK(L5, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>VP / SVP of AI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Curative AI, Inc.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>$250,000 - $350,000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>250000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>350000</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>An executive role at Curative AI, Inc. leading AI strategy and implementation in a fast-growing healthcare startup.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Lead strategic AI initiatives and oversee AI implementation with a strong focus on machine learning, team leadership, and aligning business objectives. Requires a Master's degree or higher in AI-related fields and 10+ years of relevant experience.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/vp-svp-of-ai-at-curative-ai-inc-4194365606?position=1&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=mSiJhZqSx2cNvMIlOxlSdA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <f>HYPERLINK(L6, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>VP / SVP of Product and Operations</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Curative AI, Inc.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>$250,000 - $350,000</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>250000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>350000</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>A strategic leadership position at Curative AI, overseeing product management and operational execution in a rapidly growing AI healthcare startup.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Lead product strategy and operations for AI-powered healthcare solutions. Responsible for managing a team, ensuring project execution, and engaging with customers.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/vp-svp-of-product-and-operations-at-curative-ai-inc-4193984816?position=37&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=4Br%2F9jVJ%2BFQH3cpPXUbFBw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f>HYPERLINK(L7, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>789012</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AI Strategy Lead (Senior Director)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Pfizer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bothell, WA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>$204,700 - $341,100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>204700</v>
+      </c>
+      <c r="I8" t="n">
+        <v>341100</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>An experienced leader role focused on driving digital transformation in clinical development at Pfizer.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Lead cross-functional teams to implement digital solutions in clinical development, focusing on AI, data transformation, and stakeholder collaboration. Required skills include leadership in clinical trials, strategic planning, and experience with digital technologies.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/ai-strategy-lead-senior-director-at-pfizer-4217602623?position=13&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=4xSwSjF2hgwui0YhgoNb5w%3D%3D</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <f>HYPERLINK(L8, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>340100</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Senior Machine Learning Engineering Manager</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adobe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>$168,200 - $340,100</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>168200</v>
+      </c>
+      <c r="I9" t="n">
+        <v>340100</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>A senior role at Adobe to spearhead efforts in generative AI solutions, focusing on innovation and technical leadership.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Lead a team in designing, deploying, and optimizing generative models and APIs for enterprise customers. Key skills include machine learning, generative AI (e.g., GANs, diffusion models), and engineering leadership.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-machine-learning-engineering-manager-at-adobe-4201146673?position=12&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=zsienr%2FuNljp5f5gHE3a3w%3D%3D</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <f>HYPERLINK(L9, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Software Development Snr Director</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>$141,200 - $338,500</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>141200</v>
+      </c>
+      <c r="I10" t="n">
+        <v>338500</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>A senior director role at Oracle responsible for overseeing engineering teams and driving cloud service innovations.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Lead the development and design of Oracle Cloud Data Services. Requires strong leadership, extensive software architecture knowledge, and excellent communication skills. Experience in Cloud Operations and ability to manage large teams are essential.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-development-snr-director-at-oracle-4181913584?position=60&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=PGCnnjNZkrrwyQ4vQwKBHw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <f>HYPERLINK(L10, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>322875</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AI - Innovation, Delivery and Business Development Leader (Healthcare Focus)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>$193,725 - $322,875</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>193725</v>
+      </c>
+      <c r="I11" t="n">
+        <v>322875</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>An AI leadership role at Deloitte focusing on healthcare solutions.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Lead AI initiatives in healthcare to improve patient care and optimize operations. Requires expertise in AI, machine learning, strong business development skills, and experience with healthcare systems.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/ai-innovation-delivery-and-business-development-leader-healthcare-focus-at-deloitte-4133382357?position=11&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=FxzmoL%2BHpM62oD9OWtIGWw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <f>HYPERLINK(L11, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Senior Machine Learning Engineering Manager</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adobe</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>$154,700 - $320,000</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>154700</v>
+      </c>
+      <c r="I12" t="n">
+        <v>320000</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>A leadership role in shaping Adobe's enterprise GenAI solutions.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Lead a high-performing team to design and deploy generative models for enterprise applications. Key skills include ML, MLOps, team leadership, and strong communication.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-machine-learning-engineering-manager-at-adobe-4212869547?position=22&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=gDThA1jvTTXIbci0gcZv9g%3D%3D</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <f>HYPERLINK(L12, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Solution Architect/AI Engineer V</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Premera Blue Cross</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mountlake Terrace, WA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>$175,600 - $316,100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>175600</v>
+      </c>
+      <c r="I13" t="n">
+        <v>316100</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Lead AI initiatives at Premera Blue Cross, transforming healthcare through innovative AI/ML solutions.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>As a Solution Architect/AI Engineer V, you will lead the design and development of AI applications, focusing on multi-cloud architectures and complex systems. Key skills include AI/ML, TensorFlow, PyTorch, deep learning, and excellent communication for engaging with stakeholders.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/solution-architect-ai-engineer-v-at-premera-blue-cross-4195176642?position=53&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=H3zZetmokcEkYIFjub%2Fohg%3D%3D</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <f>HYPERLINK(L13, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>291800</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Applied Science Director</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>$122,500 - $291,800</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>122500</v>
+      </c>
+      <c r="I14" t="n">
+        <v>291800</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>A leadership role at Oracle to spearhead advancements in Applied Science within cloud infrastructure.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Lead a team focused on developing cutting-edge code generation technologies. Drive applied research in cloud services and foster collaboration across teams to innovate solutions that align with market demands. Requires expertise in AI, cloud computing, and leadership skills.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/applied-science-director-at-oracle-4182266674?position=55&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=8w1Uiy%2B8tc2P6hnYGMJVDQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <f>HYPERLINK(L14, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2949052</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sr. Manager, Data &amp; AI Specialists</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Amazon Web Services (AWS)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>$174,300 - $288,200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>174300</v>
+      </c>
+      <c r="I15" t="n">
+        <v>288200</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Senior management role overseeing AWS's Data and AI strategy in North America with a focus on business development and customer engagement.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Lead the GTM strategy for AWS’ Data/AI products in North America, managing multiple teams. Key skills include team leadership, business development, and deep understanding of cloud technologies.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/sr-manager-data-ai-specialists-north-america-worldwide-specialist-organization-at-amazon-web-services-aws-4205315601?position=21&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=bCVD%2BhM9VJTmwU5RBjgVTw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <f>HYPERLINK(L15, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2925286</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Senior Manager, Learning Experience</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Amazon Web Services (AWS)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>$162,900 - $281,600</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>162900</v>
+      </c>
+      <c r="I16" t="n">
+        <v>281600</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Senior leadership position at AWS responsible for defining the vision and leading teams in training across global data center operations.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Lead the Learning Experience team at AWS Data Center Learning, focused on developing innovative training solutions and optimizing the training experience for technicians. Requires deep people management skills and experience with organizational strategies and learning technologies.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-manager-learning-experience-aws-data-center-learning-at-amazon-web-services-aws-4183137166?position=32&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=D%2BHuddwok5XWm5jKo5J%2FoQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <f>HYPERLINK(L16, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Enterprise Account Executive</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Orby AI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Greater Seattle Area</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>$220,000 - $280,000</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>220000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>280000</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Join Orby AI as an Enterprise Account Executive and redefine enterprise sales for AI automation.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Seeking an experienced Enterprise Account Executive with a proven track record in landing large enterprise deals, particularly in the AI or tech sectors. Key skills include excellent communication, strategic deal design, and market intelligence gathering.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/enterprise-account-executive-at-orby-ai-4153659238?position=25&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=y6aICQSTmHOP%2FbGuz3837w%3D%3D</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <f>HYPERLINK(L17, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>311127</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sr Manager, Specialist Solutions Engineer</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T-Mobile</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>$152,600 - $275,300</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>152600</v>
+      </c>
+      <c r="I18" t="n">
+        <v>275300</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>A leadership role at T-Mobile requiring technical expertise and team management in Solutions Engineering.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Lead and manage a team of Solutions Engineers at T-Mobile, focusing on complex solutions such as ANS and IoT. Requires expertise in software development, solution architecture, AI, and strong leadership skills.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/sr-manager-specialist-solutions-engineer-at-t-mobile-4205248099?position=36&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=zQpu49J9H6KU6910Ym0ejQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <f>HYPERLINK(L18, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sr Manager of Data &amp; AI Products</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Puget Sound Energy</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>$151,100 - $266,300</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>151100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>266300</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>A managerial position focused on driving data and AI initiatives at Puget Sound Energy.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Lead product-focused teams to deliver high-impact data solutions across the enterprise. Requires experience in data product strategy, a strong product management mindset, and collaboration with external vendors.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/sr-manager-of-data-ai-products-at-puget-sound-energy-4215595158?position=39&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=Vd6UYrPfLBpdUB2Km7QRpA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <f>HYPERLINK(L19, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2947799</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Principal Tech Business Development Manager, Artificial General Intelligence</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>$158,400 - $262,000</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>158400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>262000</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>A senior business development role at Amazon focusing on AI partnerships.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Lead high-impact partnerships in AI development. Requires strong relationship-building, program management skills, and 10+ years of experience. An MBA and experience influencing leadership decisions are preferred.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/principal-tech-business-development-manager-artificial-general-intelligence-at-amazon-4203446727?position=7&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=9POyNFm5s4bvBuhZUEfu8w%3D%3D</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>8</v>
+      </c>
+      <c r="N20">
+        <f>HYPERLINK(L20, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2921575</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Senior Applied Scientist, B2B Payments &amp; Lending</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>$150,400 - $260,000</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>150400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>260000</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>An opportunity at Amazon for a Senior Applied Scientist in B2B Payments &amp; Lending, focusing on machine learning and financial insights.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Seeking a Senior Applied Scientist with expertise in machine learning, programming in languages like Java, C++, or Python, and experience in causal inference and experimentation. You will design solutions that impact financial products.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-applied-scientist-b2b-payments-lending-at-amazon-4179162518?position=24&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=fibxspgXKALDOIjmXzBkKQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <f>HYPERLINK(L21, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Business Development Senior Manager</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Salesforce</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>$184,000 - $253,000</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>184000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>253000</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>A senior management role at Salesforce, pivotal for business development in AI and cloud ecosystems.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Lead strategic partnership activities at Salesforce, focusing on generating partnerships, driving deal structures, and collaborating with cross-functional teams to enhance AI capabilities and product integrations.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-senior-manager-at-salesforce-4214349858?position=58&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=mBRryx5mJGY%2BfJf5wpmx%2Fw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <f>HYPERLINK(L22, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Senior Principal Product Manager (OCI-GEN AI)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>$115,400 - $251,600</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>115400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>251600</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Join Oracle as a Senior Principal Product Manager to drive the success of generative AI services.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Lead critical initiatives for Oracle's generative AI product portfolio, requiring expertise in product strategy, marketing leadership, and cross-functional collaboration. The ideal candidate will have a deep understanding of AI technologies and enterprise solutions.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-principal-product-manager-oci-gen-ai-at-oracle-4208605613?position=41&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=F3w%2FpU4dBsZCTLAEh3n99w%3D%3D</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <f>HYPERLINK(L23, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Software Engineering Manager, AR AI</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Meta</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Redmond, WA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>$177,000 - $251,000</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>177000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>A leadership position at Meta focused on AI and computer vision.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Lead and support a team of AI and CV experts while developing technical vision and strategy. Experience in large language models, NLP, and deep learning is essential.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineering-manager-ar-ai-at-meta-4120822758?position=28&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=zBu%2FlEF7DMzvREevIb6sRw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <f>HYPERLINK(L24, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>General Manager, AI</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Toptal</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>$200,000 - $250,000</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>200000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>250000</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>A leadership role at Toptal, focusing on AI business growth and innovation.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Lead the development of a new AI business line at Toptal. Requires strong expertise in data management, AI governance, and team collaboration. Ideal for candidates with entrepreneurial experience and a passion for AI innovation.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/general-manager-ai-at-toptal-4190456533?position=5&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=djv11G5o92%2F%2Fqg0wsbklFg%3D%3D</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <f>HYPERLINK(L25, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Principal Machine Learning Architect</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sift</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>$200,000 - $250,000</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>200000</v>
+      </c>
+      <c r="I26" t="n">
+        <v>250000</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>A senior role focusing on the evolution of ML architecture and collaboration with engineering, data science, and product teams.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Lead the design and implementation of large-scale, production-grade ML systems. Key skills include proficiency in Python, Java, and familiarity with tools like TensorFlow, PyTorch, and industry best practices for ML deployments.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/principal-machine-learning-architect-at-sift-4192222201?position=34&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=mu8JD9WFS5kvJzThW2b2vg%3D%3D</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <f>HYPERLINK(L26, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>67890</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Senior Director, Global Partner Manager - GCP</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Pegasystems</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>$200,000 - $250,000</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>200000</v>
+      </c>
+      <c r="I27" t="n">
+        <v>250000</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>A pivotal role at Pegasystems for a Senior Director to manage the Google Cloud partnership.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Lead the strategic global partnership with Google Cloud Platform, driving revenue growth, developing business plans, and overseeing co-marketing initiatives. Requires 10+ years of experience in partnerships, sales acumen, and technical expertise in cloud solutions.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-director-global-partner-manager-gcp-at-pegasystems-4207358674?position=35&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=A6fEA6SPTz6vp3pc%2Bz9okw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <f>HYPERLINK(L27, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2949007</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Startups GenAI Strategist</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Amazon Web Services (AWS)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>$138,200 - $239,000</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>138200</v>
+      </c>
+      <c r="I28" t="n">
+        <v>239000</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>A strategic role focused on fostering innovation in startups through the application of Generative AI at AWS.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>We are looking for a GenAI Strategist with business acumen and a deep technical background in analytics, machine learning, and generative AI to assist startups in leveraging AWS capabilities. You will engage with technical and non-technical teams, develop roadmaps, and build relationships to deliver innovative solutions.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/startups-genai-strategist-generative-ai-innovation-delivery-team-at-amazon-web-services-aws-4205323143?position=23&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=sZYHU1%2BIiuRcNyw9Y4%2Bpug%3D%3D</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <f>HYPERLINK(L28, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Director, Global Strategic Alliances</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Amperity</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>$170,000 - $230,000</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>170000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>230000</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>A leadership role focused on building and managing strategic partnerships to drive revenue growth.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Lead the Global Strategic Alliances strategy at Amperity, focusing on partnership development and revenue growth. Key skills include strategic leadership, pipeline management, executive relationship management, and GTM strategy formulation.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/director-global-strategic-alliances-at-amperity-4196249340?position=20&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=r90iOXVPTd0G%2FDjdqcmhlA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <f>HYPERLINK(L29, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Director, Pre-Sales Solutions Consulting</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Amperity</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>$166,000 - $230,000</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>166000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>230000</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>A leadership role at Amperity to guide sales through technical insights and team development.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Lead and mentor a team of Pre-Sales Solution Consultants, focusing on technical aspects of the sales process. Key skills include experience in Pre-Sales Solutions consulting, data technology, customer advocacy, and effective solution selling.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/director-pre-sales-solutions-consulting-at-amperity-4134052288?position=56&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=W6JlYdt6ip4e2RtNsY0wQQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <f>HYPERLINK(L30, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>223456</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Customer Success Manager / Senior Manager - Tableau</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Salesforce</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>$133,400 - $223,700</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>133400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>223700</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Join Salesforce as a Customer Success Manager to support Tableau customers and drive their success.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>As a Customer Success Manager, you will enhance customer satisfaction by providing technical guidance, understanding business needs, and ensuring effective use of Tableau products. Strong communication skills and experience with SaaS platforms are essential.</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/customer-success-manager-senior-manager-tableau-at-salesforce-4190038023?position=19&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=tiggL6oDXvQs0H61zVHbQA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <f>HYPERLINK(L31, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Vice President, Enterprise Applications (Growth &amp; Retention)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Trupanion</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>$190,000 - $220,000</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>190000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>220000</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>A strategic leadership role at Trupanion focused on enhancing enterprise applications for growth and retention.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>The Vice President of Enterprise Applications will oversee the development and management of applications supporting CRM, marketing systems, and insurance technology. Key skills include strategic leadership, CRM expertise, and knowledge of insurance compliance standards.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/vice-president-enterprise-applications-growth-retention-at-trupanion-4193012677?position=47&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=VBYiy9fa3%2BLyUPOAfei88Q%3D%3D</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>7</v>
+      </c>
+      <c r="N32">
+        <f>HYPERLINK(L32, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Software Engineering Leader</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Hypertherm Associates</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Kent, WA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>$130,753.00 - $217,924.00</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>130753</v>
+      </c>
+      <c r="I33" t="n">
+        <v>217924</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Exciting leadership role at Hypertherm Associates focusing on innovative software solutions.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Lead a team in developing AI-powered applications for motion control and user interfaces. Key skills include expertise in multiple programming languages (C, C++, C#), familiarity with communication protocols, and experience with motion control systems.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineering-leader-at-hypertherm-associates-4195329204?position=46&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=VGS2ltWRRMMyQ%2BwLLTAeug%3D%3D</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <f>HYPERLINK(L33, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>423175</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sr. AI Evidence and References Marketing Lead</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>$100,000 - $216,000</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>216000</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>A senior marketing role focusing on AI customer evidence at SAP.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Lead the global customer reference and advocacy strategy for SAP Business AI, focusing on marketing customer success stories, testimonials, and case studies. Requires strong collaboration skills, a background in AI or enterprise technology, and experience in driving customer advocacy initiatives.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/sr-ai-evidence-and-references-marketing-lead-at-sap-4204869338?position=54&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=xIVRMDtpw0Oef4xMA7AlDw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <f>HYPERLINK(L34, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2961730</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Research Scientist, Global Hiring Science (GHS)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>$136,000 - $212,800</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>136000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>212800</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>A scientific leader role at Amazon focused on transforming the hiring process using advanced methodologies and technology.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>The role involves leading the development of survey methodologies, applying psychometrics, and using advanced statistical techniques to enhance recruitment. Candidates should have a PhD or Master's degree along with strong skills in data analysis, machine learning, and collaborative problem-solving.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/research-scientist-global-hiring-science-ghs-at-amazon-4214631152?position=40&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=K7ODUS1VOr%2Fio%2Fzmz0BxMA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <f>HYPERLINK(L35, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>226282</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Executive Engagement Leader</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Databricks</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>$134,800 - $206,700</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>134800</v>
+      </c>
+      <c r="I36" t="n">
+        <v>206700</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>An Executive Engagement Leader at Databricks focusing on strategic executive engagement and value proposition.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Lead executive engagements to articulate the strategic advantages of Databricks products, develop strategic frameworks, and drive customer adoption while working with senior leaders in various industries. Strong communication and project management skills are essential.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/executive-engagement-leader-at-databricks-4209594910?position=14&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=EoOii%2F595Xj8IqUIDMz5Dg%3D%3D</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <f>HYPERLINK(L36, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AI Cloud Operations Lead</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SitusAMC</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Olympia, WA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>$130,000 - $200,000</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>130000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>An exciting opportunity to shape AI operations at SitusAMC, focusing on scalability and innovation.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Lead AI and Machine Learning operational workflows in cloud environments, primarily AWS. Collaborate with AI Developers and Data Engineers to design and implement automated AI/ML pipelines, optimize RAG capabilities, and establish robust cloud infrastructure.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/ai-cloud-operations-lead-remote-at-jobs-via-lensa-4218042472?position=9&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=BhhiJBnQNSujy%2FvGFQJ1gg%3D%3D</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <f>HYPERLINK(L37, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5513</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Education Solutions Consultant</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Trilogy</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>$200,000/year</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>200000</v>
+      </c>
+      <c r="I38" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>A director-level role focusing on transformative education solutions in a fast-paced startup environment.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Join a stealth educational startup revolutionizing K-12 education. The ideal candidate will have 3+ years of experience in managing complex K-12 sales cycles, strong relationships with district decision-makers, and proven success in closing six and seven-figure contracts.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/education-solutions-consultant-stealth-educational-startup-remote-%24200-000-year-usd-at-trilogy-4213687783?position=15&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=RYbOl760pA3yw7bxw6yKPw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <f>HYPERLINK(L38, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5513</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Education Solutions Consultant</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Trilogy</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Everett, WA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>$200,000/year USD</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>200000</v>
+      </c>
+      <c r="I39" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>A high-impact role driving educational change at Trilogy.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Join a stealth-mode startup focused on revolutionizing K-12 education. You'll engage with district decision-makers, closing six and seven-figure deals with a track record of managing complex sales cycles. The role demands strong relationships, extensive travel, and autonomy in your territory strategy.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/education-solutions-consultant-stealth-educational-startup-remote-%24200-000-year-usd-at-trilogy-4213693169?position=33&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=bWNY%2FxWtHLh01oQXOXkmdA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>8</v>
+      </c>
+      <c r="N39">
+        <f>HYPERLINK(L39, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Principal Cybersecurity Architect – AI/ML &amp; Cloud Security</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>JPMorganChase</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>$150,000 - $200,000</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>150000</v>
+      </c>
+      <c r="I40" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>A leadership role focused on securing AI/ML and cloud technologies at JPMorganChase.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>As a Principal Cybersecurity Architect, you will design secure cloud infrastructure architectures for enterprise AI/ML applications, identify and mitigate security risks, and develop security policies. Key skills include cloud security expertise, AI/ML knowledge, and experience with frameworks like NIST and OWASP.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/principal-cybersecurity-architect-%E2%80%93-ai-ml-cloud-security-at-jpmorganchase-4207823041?position=44&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=FPPB9Tp9y7LTlNfOLS4zSQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <f>HYPERLINK(L40, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Chief Commercial Officer - Solutions Sales AI</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PeopleConnect Staffing</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Greater Seattle Area</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>$150,000 - $200,000</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>150000</v>
+      </c>
+      <c r="I41" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>A strategic leadership role focused on driving sales and customer satisfaction in AI solutions at PeopleConnect Staffing.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Responsible for leading the sales strategy and ensuring customer success in AI solutions. Requires expertise in enterprise B2B sales, strategic thinking, and exceptional communication skills.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/chief-commercial-officer-solutions-sales-ai-at-peopleconnect-staffing-4212866642?position=45&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=t0n5qHKwgxQqeTTSv85p%2FQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <f>HYPERLINK(L41, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>311747</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sr Manager, SEO</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>T-Mobile</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>$110,800 - $200,000</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>110800</v>
+      </c>
+      <c r="I42" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>A leadership role in T-Mobile’s SEO team, overseeing strategies for organic visibility and growth.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Lead the in-house SEO team to drive strategy and execution of SEO initiatives, focusing on content, technical SEO, AI optimization, and data analytics. Manage SEO growth through collaboration and innovation.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/sr-manager-seo-at-t-mobile-4208202379?position=52&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=%2BCMGJNtGk0RmyQs6U%2BpXjw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>7</v>
+      </c>
+      <c r="N42">
+        <f>HYPERLINK(L42, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>425</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sr. User Researcher</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Databricks</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>$124,300 - $190,500</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>124300</v>
+      </c>
+      <c r="I43" t="n">
+        <v>190500</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>A leadership role focused on enhancing user experience through in-depth research and collaboration across teams at Databricks.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Join Databricks as a Sr. User Researcher to lead user experience research and business strategy development. Key skills include mixed methods research, strong communication, and expertise in statistical analysis and coding.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/sr-user-researcher-at-databricks-4078441028?position=50&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=wSq75dJaeBRKfVvJPTrhFQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>8</v>
+      </c>
+      <c r="N43">
+        <f>HYPERLINK(L43, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Customer Success Manager</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Salesforce</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>$133,400 - $183,500</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>133400</v>
+      </c>
+      <c r="I44" t="n">
+        <v>183500</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>A critical role at Salesforce, focusing on enhancing customer experiences and ensuring successful adoption of Salesforce services.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>The Customer Success Manager at Salesforce will orchestrate interactions with Signature customer organizations, ensuring optimal onboarding, support, and contract renewals. Key skills include strong problem-solving abilities, knowledge of Salesforce CRM, customer relationship management, and an understanding of government processes for federal customers.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/customer-success-manager-at-salesforce-4218020089?position=49&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=WGVCCM%2FK3cLGBTdi3c4CnA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>7</v>
+      </c>
+      <c r="N44">
+        <f>HYPERLINK(L44, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>183500</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tableau Customer Success Manager (TS/SCI)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Salesforce</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>$133,400 - $183,500</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>133400</v>
+      </c>
+      <c r="I45" t="n">
+        <v>183500</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>A customer success management role at Salesforce, focused on supporting federal customers with a comprehensive understanding of government processes.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>The Customer Success Manager will manage the Signature Success Plan for enterprise customers, ensuring they receive optimal value from Salesforce. The role requires strong consulting skills, a deep understanding of customer needs, and the ability to communicate technical concepts clearly. Candidates should possess 8+ years of experience in customer success roles, technical solutions, or related fields.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/tableau-customer-success-manager-ts-sci-at-salesforce-4219091017?position=57&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=kJRK8EFLVcNDBDtDw%2BjLkg%3D%3D</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>8</v>
+      </c>
+      <c r="N45">
+        <f>HYPERLINK(L45, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Enterprise Customer Success Manager</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SeekOut</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>$94,380 - $112,640</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>94380</v>
+      </c>
+      <c r="I46" t="n">
+        <v>112640</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>A role focused on customer success and engagement at SeekOut.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>SeekOut is seeking an Enterprise Customer Success Manager to manage the customer journey for our Enterprise clients. Key skills include experience with SaaS products, strong communication abilities, and a background in recruiting or HR tech.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/enterprise-customer-success-manager-at-seekout-4215939916?position=10&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=MarxCfNBNlAEBIzHnab1KA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>7</v>
+      </c>
+      <c r="N46">
+        <f>HYPERLINK(L46, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Business Analyst - II</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Aditi Consulting</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>$43.00/hr</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>43</v>
+      </c>
+      <c r="I47" t="n">
+        <v>43</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>An entry-level Business Analyst role at Aditi Consulting focused on operational support and compliance.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>The Business Analyst will support various in-house tools, ensuring data accuracy and completeness. Key skills include advanced Excel, SQL/Snowflake, and familiarity with SOX compliance.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-analyst-ii-at-aditi-consulting-4212978682?position=29&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=Q12p6CFXbbO5bl9fGvJDog%3D%3D</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <f>HYPERLINK(L47, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>789012</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Enterprise AI Field CTO</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Centific</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Redmond, WA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>A senior role in leading AI solutions at Centific.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Lead strategic planning and design for Generative AI initiatives. Requires expertise in AI, strong communication skills, and experience in stakeholder engagement.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/enterprise-ai-field-cto-at-centific-4206211178?position=2&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=Mp1Nv0zoL3iFP4TONOq0PA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>7</v>
+      </c>
+      <c r="N48">
+        <f>HYPERLINK(L48, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Director Software Development - AI Inference</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>A leadership role at AMD centered on AI inference software development.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Lead and manage teams focused on optimizing AI inference models on AMD's GPU architecture. Key skills include strong technical leadership, experience in Agile environments, AI frameworks (TensorFlow, PyTorch), and optimizing performance on GPUs.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/director-software-development-ai-inference-at-amd-4209594113?position=3&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=d10AeqEN0Pyf7qz4hwXYbA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <f>HYPERLINK(L49, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>510705779</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Principal Architect, AI &amp; ML</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Korn Ferry</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Negotiable based on skills and experience</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>A key leadership role focused on driving AI &amp; ML strategy and implementation at Korn Ferry.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Lead the technical architecture for AI &amp; ML initiatives, defining strategic roadmaps and ensuring scalability and reliability of solutions. Requires experience in AI/ML architecture, strong programming skills in Python and frameworks like TensorFlow and PyTorch, and effective communication skills.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/principal-architect-ai-ml-at-korn-ferry-4179339606?position=4&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=E9xrdJ496Jm1GxvtcVAKeA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <f>HYPERLINK(L50, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Director of Data &amp; AI</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>AIM Consulting Group</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>A leadership role at AIM Consulting focused on data solutions and client relationship management.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Lead and manage AIM Consulting's Data &amp; Analytics practice, fostering client growth and delivering innovative data solutions. Must have experience in Data Architecture, Data Science, and Business Development.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/director-of-data-ai-at-aim-consulting-group-4189740017?position=6&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=NqdJQ0MK%2FOY2XU0AbS7KJw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>6</v>
+      </c>
+      <c r="N51">
+        <f>HYPERLINK(L51, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>123457</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Senior Business Analyst</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Resulticks</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>$0 - $0</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>A senior position focused on effective analysis and collaboration within product and IT teams.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Seeking a Senior Business Analyst with 5-10 years of experience in problem-solving and process analysis. Strong analytical skills, collaboration, and communication are essential. Experience in software design and Microsoft tools is advantageous.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-analyst-bellevue-at-resulticks-4167239231?position=8&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=b6DL744xc6oFDrZZTCkHUw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>6</v>
+      </c>
+      <c r="N52">
+        <f>HYPERLINK(L52, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Solutions Architect - HPC/AI/ML</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CoreWeave</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pay found in job post</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>A vital role at CoreWeave, focusing on cloud computing and AI/ML solutions.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>As a Solutions Architect at CoreWeave, you will leverage your expertise in Kubernetes, Machine Learning, and Networking Engineering to assist customers in optimizing their cloud infrastructure and AI/ML workloads. You will lead proof of concept initiatives and collaborate closely with our engineering team to enhance product offerings.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/solutions-architect-hpc-ai-ml-at-coreweave-4150696187?position=16&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=0XS8Hbts5UA2%2BWWfQu2oMw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>6</v>
+      </c>
+      <c r="N53">
+        <f>HYPERLINK(L53, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Senior Business Development Manager</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Leonardo.Ai</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>$0 - $0</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>A pivotal role at Leonardo.Ai for a Senior Business Development Manager to lead growth strategies in dynamic creative industries.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Seeking a Senior Business Development Manager to drive growth within the SMB vertical, focusing on marketing, advertising, and gaming. The role requires exceptional sales skills, experience in B2B SaaS environments, and the ability to build strategic partnerships.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-business-development-manager-at-leonardo-ai-4201913696?position=18&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=kwW1eqkvDOSMzzvzQTLooQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>6</v>
+      </c>
+      <c r="N54">
+        <f>HYPERLINK(L54, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>VP of Marketing</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Read AI</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>A pivotal role focused on driving growth and optimizing business performance at Read AI.</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Lead the marketing strategy at Read AI, leveraging your experience in strategic planning, market analysis, and revenue management while fostering a culture of innovation and collaboration.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/vp-of-marketing-at-read-ai-4145883778?position=30&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=zLHv7vS6GaDuDH%2FBJptkAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <f>HYPERLINK(L55, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>789012</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Delivery Manager – Enterprise AI Technology Programs</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Distyl AI</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>A dynamic role at Distyl AI focused on high-impact delivery and operational success.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Lead the execution of large-scale AI programs, managing enterprise budgets over $10M. Key skills include stakeholder alignment, team motivation, and an understanding of AI-driven solutions.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/delivery-manager-%E2%80%93-enterprise-ai-technology-programs-at-distyl-ai-4183453232?position=31&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=v00889EYHR69r1TIsOV3Ag%3D%3D</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>7</v>
+      </c>
+      <c r="N56">
+        <f>HYPERLINK(L56, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Future CEO</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Pioneer Square Labs</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>An executive role at Pioneer Square Labs to redefine project management through AI.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Lead Atrieon as the Future CEO, focusing on AI safety and project management innovation. You'll need experience in high-growth SaaS startups, GTM strategy, and fundraising, with a passion for leveraging AI.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/atrieon-future-ceo-at-pioneer-square-labs-4189746291?position=38&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=iogfiPAlgxKkHEeExjDsiw%3D%3D</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>7</v>
+      </c>
+      <c r="N57">
+        <f>HYPERLINK(L57, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Senior Principal Scientist – Operations Research</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Keystone AI</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>A high-impact role requiring advanced technical skills and leadership in AI-driven supply chain optimization.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Lead the vision and strategy for optimization in supply chain planning. Develop algorithms connecting forecasting systems with optimization engines, and mentor a high-performing team. Requires PhD in Operations Research or related field and proficiency in Python, R, or Java.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/coreai-senior-principal-scientist-%E2%80%93-operations-research-at-keystone-ai-4209328499?position=42&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=bPnbIOMDLzUuPiAMIoLpOA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58">
+        <f>HYPERLINK(L58, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Client Growth Leader Data Services</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>A pivotal role at IBM focused on driving client growth through innovative Data Services solutions.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>As a Client Growth Leader in Data Services at IBM, you'll develop innovative solutions for clients, focusing on user experience, scalability, and cost efficiency. Key skills include sales acumen, client relationship management, and a strong understanding of modern Data and AI technologies.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/client-growth-leader-data-services-at-ibm-4211623638?position=43&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=BDyQ39s9lnw2GGuLIhkETg%3D%3D</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>7</v>
+      </c>
+      <c r="N59">
+        <f>HYPERLINK(L59, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Business Analyst</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Brooksource</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SeaTac, WA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>This role involves collaborating with cross-functional teams to enhance guest experience through strategic communication and technology solutions.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Seeking an experienced Business Analyst to optimize guest communications, focusing on rule creation across email, SMS, and app. Requires strong analytical skills, experience in communication processes, and a background in project management.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-analyst-at-brooksource-4214834196?position=48&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=h%2BfgdrbJDQBtxWvtXAMWPA%3D%3D</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>7</v>
+      </c>
+      <c r="N60">
+        <f>HYPERLINK(L60, "Link")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>987654</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>LinkedIn</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sales Lead</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>IGT Solutions Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>$0 - $0</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>A senior sales position focused on IT solutions at IGT Solutions.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Seeking an experienced Sales Leader for IT Solutions &amp; Services with 12-15 years of relevant experience. Key responsibilities include developing sales strategies, negotiating contracts, and managing customer relationships, while staying updated on industry trends.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/sales-lead-at-igt-solutions-4206930577?position=59&amp;pageNum=0&amp;refId=p%2FP%2BD%2B6r%2FlYsMDe5ezhN1Q%3D%3D&amp;trackingId=26J9YUzrSy8fVGpnZVg8yQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>6</v>
+      </c>
+      <c r="N61">
+        <f>HYPERLINK(L61, "Link")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>